--- a/output/compatibility_results.xlsx
+++ b/output/compatibility_results.xlsx
@@ -429,11 +429,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Aconnect</t>
+          <t>Bcollab</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0.3360969272762575</v>
       </c>
     </row>
     <row r="2">
@@ -444,11 +444,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AFiscalTrack</t>
+          <t>BExpenseManager</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1164898274024376</v>
+        <v>0.06335481222196541</v>
       </c>
     </row>
     <row r="3">
@@ -459,11 +459,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aconnect</t>
+          <t>Bcollab</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1164898274024376</v>
+        <v>0.06744304769296748</v>
       </c>
     </row>
     <row r="4">
@@ -474,11 +474,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AFiscalTrack</t>
+          <t>BExpenseManager</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.216933817011397</v>
       </c>
     </row>
   </sheetData>
